--- a/biology/Histoire de la zoologie et de la botanique/Richard_Cawthorn_Starr/Richard_Cawthorn_Starr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Cawthorn_Starr/Richard_Cawthorn_Starr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Cawthorn Starr est un botaniste américain, né le 24 août 1924 à Greensboro en Géorgie et mort le 3 février 1998.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences au Georgia Teacher's College puis son Master of Arts au George Peabody College
 de Nashville, Tennessee. Il entre en 1947 au département de botanique de la Vanderbilt University. Il s’y lie d’amitié avec son directeur de thèse, Harold Charles Bold (1909-1987) qui l’initie à l’univers des algues. Starr obtient la bourse Fulbright en 1950-1951, ce qui lui permet d’étudier à Cambridge en Grande-Bretagne notamment auprès de Ernst Georg Pringsheim (1881-1970).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Université du Texas (en anglais)</t>
         </is>
